--- a/Secretarias/SPC/EQUIPAMIENTO.xlsx
+++ b/Secretarias/SPC/EQUIPAMIENTO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sociodemograficos01\Documents\GitHub\MapasTematicos\Secretarias\SPC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DarkcShadow\Documents\GitHub\MapasTematicos\Secretarias\SPC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E2A8C43-38F1-4194-9991-14D0A1123872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA775591-D383-49B2-AD41-58A4A9D2569D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EQUIPO_DONADO" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">EQUIPO_DONADO!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1107,23 +1107,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A212" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G200" sqref="G200"/>
+    <sheetView tabSelected="1" topLeftCell="A247" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A261" sqref="A261:E261"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1"/>
-    <col min="2" max="2" width="23.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" style="1"/>
+    <col min="2" max="2" width="23.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="2" customWidth="1"/>
     <col min="7" max="7" width="77" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.42578125" style="1"/>
+    <col min="8" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1143,7 +1143,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>30004</v>
       </c>
@@ -1163,7 +1163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>30204</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>30160</v>
       </c>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>30009</v>
       </c>
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>30015</v>
       </c>
@@ -1243,7 +1243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>30032</v>
       </c>
@@ -1263,7 +1263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>30054</v>
       </c>
@@ -1283,7 +1283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>30057</v>
       </c>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>30039</v>
       </c>
@@ -1323,7 +1323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>30040</v>
       </c>
@@ -1343,7 +1343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>30065</v>
       </c>
@@ -1363,7 +1363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>30072</v>
       </c>
@@ -1383,7 +1383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>30073</v>
       </c>
@@ -1403,7 +1403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>30077</v>
       </c>
@@ -1423,7 +1423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>30083</v>
       </c>
@@ -1443,7 +1443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>30089</v>
       </c>
@@ -1463,7 +1463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>30095</v>
       </c>
@@ -1483,7 +1483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>30016</v>
       </c>
@@ -1503,7 +1503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>30104</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>30108</v>
       </c>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>30112</v>
       </c>
@@ -1563,7 +1563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>30119</v>
       </c>
@@ -1583,7 +1583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>30121</v>
       </c>
@@ -1603,7 +1603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>30122</v>
       </c>
@@ -1623,7 +1623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>30123</v>
       </c>
@@ -1643,7 +1643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>30124</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>30131</v>
       </c>
@@ -1683,7 +1683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>30133</v>
       </c>
@@ -1703,7 +1703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>30182</v>
       </c>
@@ -1723,7 +1723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>30141</v>
       </c>
@@ -1743,7 +1743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>30151</v>
       </c>
@@ -1763,7 +1763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>30152</v>
       </c>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>30154</v>
       </c>
@@ -1803,7 +1803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>30209</v>
       </c>
@@ -1823,7 +1823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>30158</v>
       </c>
@@ -1843,7 +1843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>30171</v>
       </c>
@@ -1863,7 +1863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>30178</v>
       </c>
@@ -1883,7 +1883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
         <v>30189</v>
       </c>
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>30191</v>
       </c>
@@ -1923,7 +1923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
         <v>30192</v>
       </c>
@@ -1943,7 +1943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
         <v>30193</v>
       </c>
@@ -1963,7 +1963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
         <v>30198</v>
       </c>
@@ -1983,7 +1983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
         <v>30201</v>
       </c>
@@ -2003,7 +2003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
         <v>30109</v>
       </c>
@@ -2023,7 +2023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
         <v>30061</v>
       </c>
@@ -2043,7 +2043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="5">
         <v>30011</v>
       </c>
@@ -2063,7 +2063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="5">
         <v>30028</v>
       </c>
@@ -2083,7 +2083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="5">
         <v>30044</v>
       </c>
@@ -2103,7 +2103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
         <v>30068</v>
       </c>
@@ -2123,7 +2123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="5">
         <v>30115</v>
       </c>
@@ -2143,7 +2143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="5">
         <v>30118</v>
       </c>
@@ -2163,7 +2163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
         <v>30124</v>
       </c>
@@ -2183,7 +2183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
         <v>30128</v>
       </c>
@@ -2203,7 +2203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="5">
         <v>30141</v>
       </c>
@@ -2223,7 +2223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="5">
         <v>30192</v>
       </c>
@@ -2243,7 +2243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="5">
         <v>30109</v>
       </c>
@@ -2263,7 +2263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="5">
         <v>30087</v>
       </c>
@@ -2283,7 +2283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="5">
         <v>30087</v>
       </c>
@@ -2303,7 +2303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="5">
         <v>30087</v>
       </c>
@@ -2323,7 +2323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="5">
         <v>30087</v>
       </c>
@@ -2343,7 +2343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="5">
         <v>30087</v>
       </c>
@@ -2363,7 +2363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="5">
         <v>30087</v>
       </c>
@@ -2383,7 +2383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="6">
         <v>30004</v>
       </c>
@@ -2403,7 +2403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="6">
         <v>30204</v>
       </c>
@@ -2423,7 +2423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="6">
         <v>30160</v>
       </c>
@@ -2443,7 +2443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="6">
         <v>30009</v>
       </c>
@@ -2463,7 +2463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="6">
         <v>30032</v>
       </c>
@@ -2483,7 +2483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="6">
         <v>30054</v>
       </c>
@@ -2503,7 +2503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="6">
         <v>30057</v>
       </c>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="6">
         <v>30039</v>
       </c>
@@ -2543,7 +2543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="6">
         <v>30040</v>
       </c>
@@ -2563,7 +2563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="6">
         <v>30065</v>
       </c>
@@ -2583,7 +2583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="6">
         <v>30072</v>
       </c>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="6">
         <v>30073</v>
       </c>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="6">
         <v>30077</v>
       </c>
@@ -2643,7 +2643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="6">
         <v>30089</v>
       </c>
@@ -2663,7 +2663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="6">
         <v>30095</v>
       </c>
@@ -2683,7 +2683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="6">
         <v>30016</v>
       </c>
@@ -2703,7 +2703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="6">
         <v>30104</v>
       </c>
@@ -2723,7 +2723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="6">
         <v>30108</v>
       </c>
@@ -2743,7 +2743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="6">
         <v>30112</v>
       </c>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="6">
         <v>30119</v>
       </c>
@@ -2783,7 +2783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="6">
         <v>30121</v>
       </c>
@@ -2803,7 +2803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="6">
         <v>30122</v>
       </c>
@@ -2823,7 +2823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="6">
         <v>30123</v>
       </c>
@@ -2843,7 +2843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="6">
         <v>30124</v>
       </c>
@@ -2863,7 +2863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="6">
         <v>30131</v>
       </c>
@@ -2883,7 +2883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="6">
         <v>30133</v>
       </c>
@@ -2903,7 +2903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="6">
         <v>30182</v>
       </c>
@@ -2923,7 +2923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="6">
         <v>30141</v>
       </c>
@@ -2943,7 +2943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="6">
         <v>30151</v>
       </c>
@@ -2963,7 +2963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="6">
         <v>30152</v>
       </c>
@@ -2983,7 +2983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="6">
         <v>30154</v>
       </c>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="6">
         <v>30209</v>
       </c>
@@ -3023,7 +3023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="6">
         <v>30158</v>
       </c>
@@ -3043,7 +3043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="6">
         <v>30171</v>
       </c>
@@ -3063,7 +3063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="6">
         <v>30178</v>
       </c>
@@ -3083,7 +3083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="6"/>
       <c r="B99" s="6" t="s">
         <v>134</v>
@@ -3101,7 +3101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="6">
         <v>30189</v>
       </c>
@@ -3121,7 +3121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="6">
         <v>30191</v>
       </c>
@@ -3141,7 +3141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="6">
         <v>30192</v>
       </c>
@@ -3161,7 +3161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="6">
         <v>30193</v>
       </c>
@@ -3181,7 +3181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="6">
         <v>30198</v>
       </c>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="6">
         <v>30201</v>
       </c>
@@ -3221,7 +3221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="6">
         <v>30109</v>
       </c>
@@ -3241,7 +3241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="6">
         <v>30061</v>
       </c>
@@ -3261,7 +3261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="6">
         <v>30011</v>
       </c>
@@ -3281,7 +3281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="6">
         <v>30028</v>
       </c>
@@ -3301,7 +3301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="6">
         <v>30044</v>
       </c>
@@ -3321,7 +3321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="6">
         <v>30068</v>
       </c>
@@ -3341,7 +3341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="6">
         <v>30115</v>
       </c>
@@ -3361,7 +3361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="6">
         <v>30118</v>
       </c>
@@ -3381,7 +3381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="6">
         <v>30124</v>
       </c>
@@ -3401,7 +3401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="6">
         <v>30128</v>
       </c>
@@ -3421,7 +3421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="6">
         <v>30141</v>
       </c>
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="6">
         <v>30109</v>
       </c>
@@ -3461,7 +3461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="6">
         <v>30087</v>
       </c>
@@ -3481,7 +3481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="6">
         <v>30087</v>
       </c>
@@ -3501,7 +3501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="6">
         <v>30087</v>
       </c>
@@ -3521,7 +3521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="6">
         <v>30087</v>
       </c>
@@ -3541,7 +3541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="6">
         <v>30087</v>
       </c>
@@ -3561,7 +3561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="6">
         <v>30087</v>
       </c>
@@ -3581,7 +3581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="6">
         <v>30011</v>
       </c>
@@ -3601,7 +3601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="6">
         <v>30028</v>
       </c>
@@ -3621,7 +3621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="6">
         <v>30044</v>
       </c>
@@ -3641,7 +3641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="6">
         <v>30068</v>
       </c>
@@ -3661,7 +3661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="6">
         <v>30115</v>
       </c>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="6">
         <v>30118</v>
       </c>
@@ -3701,7 +3701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="6">
         <v>30124</v>
       </c>
@@ -3721,7 +3721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="6">
         <v>30128</v>
       </c>
@@ -3741,7 +3741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="6">
         <v>30141</v>
       </c>
@@ -3761,7 +3761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="6">
         <v>30109</v>
       </c>
@@ -3781,7 +3781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="6">
         <v>30087</v>
       </c>
@@ -3801,7 +3801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="6">
         <v>30087</v>
       </c>
@@ -3821,7 +3821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="6">
         <v>30087</v>
       </c>
@@ -3841,7 +3841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="6">
         <v>30087</v>
       </c>
@@ -3861,7 +3861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="6">
         <v>30087</v>
       </c>
@@ -3881,7 +3881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="6">
         <v>30087</v>
       </c>
@@ -3901,7 +3901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="9">
         <v>30121</v>
       </c>
@@ -3921,7 +3921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="9">
         <v>30123</v>
       </c>
@@ -3941,7 +3941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="9">
         <v>30133</v>
       </c>
@@ -3961,7 +3961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="9">
         <v>30151</v>
       </c>
@@ -3981,7 +3981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="9">
         <v>30152</v>
       </c>
@@ -4001,7 +4001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="9">
         <v>30154</v>
       </c>
@@ -4021,7 +4021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="9">
         <v>30160</v>
       </c>
@@ -4041,7 +4041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="9">
         <v>30072</v>
       </c>
@@ -4061,7 +4061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="9">
         <v>30189</v>
       </c>
@@ -4081,7 +4081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="9">
         <v>30198</v>
       </c>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="9">
         <v>30040</v>
       </c>
@@ -4121,7 +4121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="9">
         <v>30124</v>
       </c>
@@ -4141,7 +4141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="9">
         <v>30124</v>
       </c>
@@ -4161,7 +4161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="9">
         <v>30131</v>
       </c>
@@ -4181,7 +4181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="9">
         <v>30158</v>
       </c>
@@ -4201,7 +4201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="9">
         <v>30095</v>
       </c>
@@ -4221,7 +4221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="9">
         <v>30109</v>
       </c>
@@ -4241,7 +4241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="9">
         <v>30109</v>
       </c>
@@ -4261,7 +4261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="9">
         <v>30192</v>
       </c>
@@ -4281,7 +4281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="9">
         <v>30004</v>
       </c>
@@ -4301,7 +4301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="9">
         <v>30009</v>
       </c>
@@ -4321,7 +4321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="9">
         <v>30057</v>
       </c>
@@ -4341,7 +4341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="9">
         <v>30065</v>
       </c>
@@ -4361,7 +4361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="9">
         <v>30112</v>
       </c>
@@ -4381,7 +4381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="9">
         <v>30182</v>
       </c>
@@ -4401,7 +4401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="9">
         <v>30128</v>
       </c>
@@ -4421,7 +4421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="9">
         <v>30087</v>
       </c>
@@ -4441,7 +4441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="9">
         <v>30171</v>
       </c>
@@ -4461,7 +4461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="9">
         <v>30201</v>
       </c>
@@ -4481,7 +4481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="9">
         <v>30043</v>
       </c>
@@ -4501,7 +4501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="9">
         <v>30068</v>
       </c>
@@ -4521,7 +4521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="9">
         <v>30115</v>
       </c>
@@ -4541,7 +4541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="9">
         <v>30118</v>
       </c>
@@ -4561,7 +4561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="9">
         <v>30016</v>
       </c>
@@ -4581,7 +4581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="9">
         <v>30191</v>
       </c>
@@ -4601,7 +4601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="9">
         <v>30193</v>
       </c>
@@ -4621,7 +4621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="9">
         <v>30028</v>
       </c>
@@ -4641,7 +4641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="9">
         <v>30011</v>
       </c>
@@ -4661,7 +4661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="9">
         <v>30054</v>
       </c>
@@ -4681,7 +4681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="9">
         <v>30077</v>
       </c>
@@ -4701,7 +4701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="9">
         <v>30119</v>
       </c>
@@ -4721,7 +4721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="9">
         <v>30178</v>
       </c>
@@ -4741,7 +4741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="9">
         <v>30011</v>
       </c>
@@ -4761,7 +4761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="9">
         <v>30032</v>
       </c>
@@ -4781,7 +4781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="9">
         <v>30073</v>
       </c>
@@ -4801,7 +4801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="9">
         <v>30141</v>
       </c>
@@ -4821,7 +4821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="9">
         <v>30141</v>
       </c>
@@ -4841,7 +4841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="9">
         <v>30204</v>
       </c>
@@ -4861,7 +4861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="9">
         <v>30039</v>
       </c>
@@ -4881,7 +4881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" s="9">
         <v>30089</v>
       </c>
@@ -4901,7 +4901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" s="9">
         <v>30061</v>
       </c>
@@ -4921,7 +4921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" s="9">
         <v>30104</v>
       </c>
@@ -4941,7 +4941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" s="9">
         <v>30108</v>
       </c>
@@ -4961,7 +4961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" s="9">
         <v>30122</v>
       </c>
@@ -4981,7 +4981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" s="9">
         <v>30209</v>
       </c>
@@ -5001,7 +5001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" s="9">
         <v>30087</v>
       </c>
@@ -5021,7 +5021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" s="9">
         <v>30087</v>
       </c>
@@ -5041,7 +5041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" s="9">
         <v>30087</v>
       </c>
@@ -5061,7 +5061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" s="9">
         <v>30087</v>
       </c>
@@ -5081,7 +5081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="9">
         <v>30193</v>
       </c>
@@ -5101,7 +5101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" s="10">
         <v>30121</v>
       </c>
@@ -5121,7 +5121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" s="10">
         <v>30123</v>
       </c>
@@ -5141,7 +5141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" s="10">
         <v>30133</v>
       </c>
@@ -5161,7 +5161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" s="10">
         <v>30151</v>
       </c>
@@ -5181,7 +5181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" s="10">
         <v>30152</v>
       </c>
@@ -5201,7 +5201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" s="10">
         <v>30154</v>
       </c>
@@ -5221,7 +5221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" s="10">
         <v>30160</v>
       </c>
@@ -5241,7 +5241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" s="10">
         <v>30072</v>
       </c>
@@ -5261,7 +5261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" s="10">
         <v>30189</v>
       </c>
@@ -5281,7 +5281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" s="10">
         <v>30198</v>
       </c>
@@ -5301,7 +5301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" s="10">
         <v>30040</v>
       </c>
@@ -5321,7 +5321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" s="10">
         <v>30124</v>
       </c>
@@ -5341,7 +5341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" s="10">
         <v>30124</v>
       </c>
@@ -5361,7 +5361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" s="10">
         <v>30131</v>
       </c>
@@ -5381,7 +5381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" s="10">
         <v>30158</v>
       </c>
@@ -5401,7 +5401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" s="10">
         <v>30095</v>
       </c>
@@ -5421,7 +5421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" s="10">
         <v>30109</v>
       </c>
@@ -5441,7 +5441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" s="10">
         <v>30109</v>
       </c>
@@ -5461,7 +5461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" s="10">
         <v>30192</v>
       </c>
@@ -5481,7 +5481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" s="10">
         <v>30004</v>
       </c>
@@ -5501,7 +5501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" s="10">
         <v>30009</v>
       </c>
@@ -5521,7 +5521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" s="10">
         <v>30057</v>
       </c>
@@ -5541,7 +5541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" s="10">
         <v>30065</v>
       </c>
@@ -5561,7 +5561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" s="10">
         <v>30112</v>
       </c>
@@ -5581,7 +5581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" s="10">
         <v>30182</v>
       </c>
@@ -5601,7 +5601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" s="10">
         <v>30128</v>
       </c>
@@ -5621,7 +5621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" s="10">
         <v>30087</v>
       </c>
@@ -5641,7 +5641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" s="10">
         <v>30171</v>
       </c>
@@ -5661,7 +5661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" s="10">
         <v>30201</v>
       </c>
@@ -5681,7 +5681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" s="10">
         <v>30110</v>
       </c>
@@ -5701,7 +5701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" s="10">
         <v>30043</v>
       </c>
@@ -5721,7 +5721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" s="10">
         <v>30068</v>
       </c>
@@ -5741,7 +5741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" s="10">
         <v>30115</v>
       </c>
@@ -5761,7 +5761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" s="10">
         <v>30118</v>
       </c>
@@ -5781,7 +5781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" s="10">
         <v>30016</v>
       </c>
@@ -5801,7 +5801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" s="10">
         <v>30191</v>
       </c>
@@ -5821,7 +5821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" s="10">
         <v>30193</v>
       </c>
@@ -5841,7 +5841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" s="10">
         <v>30028</v>
       </c>
@@ -5861,7 +5861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" s="10">
         <v>30011</v>
       </c>
@@ -5881,7 +5881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" s="10">
         <v>30054</v>
       </c>
@@ -5901,7 +5901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" s="10">
         <v>30077</v>
       </c>
@@ -5921,7 +5921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" s="10">
         <v>30119</v>
       </c>
@@ -5941,7 +5941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" s="10">
         <v>30178</v>
       </c>
@@ -5961,7 +5961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" s="10">
         <v>30011</v>
       </c>
@@ -5981,7 +5981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" s="10">
         <v>30032</v>
       </c>
@@ -6001,7 +6001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" s="10">
         <v>30073</v>
       </c>
@@ -6021,7 +6021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" s="10">
         <v>30141</v>
       </c>
@@ -6041,7 +6041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" s="10">
         <v>30141</v>
       </c>
@@ -6061,7 +6061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" s="10">
         <v>30204</v>
       </c>
@@ -6081,7 +6081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" s="10">
         <v>30039</v>
       </c>
@@ -6101,7 +6101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" s="10">
         <v>30089</v>
       </c>
@@ -6121,7 +6121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" s="10">
         <v>30061</v>
       </c>
@@ -6141,7 +6141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" s="10">
         <v>30104</v>
       </c>
@@ -6161,7 +6161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" s="10">
         <v>30108</v>
       </c>
@@ -6181,7 +6181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" s="10">
         <v>30122</v>
       </c>
@@ -6201,7 +6201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" s="10">
         <v>30209</v>
       </c>
@@ -6221,7 +6221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" s="10">
         <v>30087</v>
       </c>
@@ -6241,7 +6241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257" s="10">
         <v>30087</v>
       </c>
@@ -6261,7 +6261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" s="10">
         <v>30087</v>
       </c>
@@ -6281,7 +6281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" s="10">
         <v>30087</v>
       </c>
@@ -6301,7 +6301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" s="10">
         <v>30193</v>
       </c>
